--- a/biology/Zoologie/Hapalochlaena/Hapalochlaena.xlsx
+++ b/biology/Zoologie/Hapalochlaena/Hapalochlaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hapalochlaena est un genre de mollusques de la classe des céphalopodes et de l'ordre des octopodes (pieuvres).
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pieuvres à anneaux bleus, vivant dans le bassin Indopacifique tropical, mesurent une dizaine de centimètres.
 Elles sont de couleur généralement claire (beige, brunes...) mais très variable, y compris selon les intentions de l'animal. Quand elles se sentent stressées, elles font apparaître des anneaux bleus très visibles et bien caractéristiques sur leur épiderme. 
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre comprend les espèces suivantes de pieuvres à anneaux bleus[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre comprend les espèces suivantes de pieuvres à anneaux bleus :
 Hapalochlaena fasciata (Hoyle, 1886)
 Hapalochlaena lunulata (Quoy et Gaimard, 1832)
 Hapalochlaena maculosa (Hoyle, 1883)  -  petite pieuvre à anneaux bleus
